--- a/guineapig.xlsx
+++ b/guineapig.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="847" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="847" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="legend" sheetId="14" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="648">
   <si>
     <t>data origin</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2783,6 +2783,12 @@
   </si>
   <si>
     <t>CoRotation</t>
+  </si>
+  <si>
+    <t>Strain amplitude</t>
+  </si>
+  <si>
+    <t>Real Permittivity</t>
   </si>
 </sst>
 </file>
@@ -4433,8 +4439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4553,7 +4559,7 @@
         <v>139</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>135</v>
+        <v>647</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>136</v>
@@ -7466,7 +7472,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD125"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
       <selection activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
@@ -42017,7 +42023,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
@@ -42908,7 +42914,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -43020,7 +43026,7 @@
     </row>
     <row r="15" spans="1:5" ht="15.2" customHeight="1">
       <c r="A15" t="s">
-        <v>598</v>
+        <v>646</v>
       </c>
       <c r="B15" s="52"/>
       <c r="C15" s="52">
